--- a/modeling/lab3/calc.xlsx
+++ b/modeling/lab3/calc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isobolev/Desktop/itmo/itmo-4course/modeling/lab3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97010626-B7C5-6141-B457-E421918CEBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB61B12-B950-9D43-B058-4BC5DB7B014D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29000" windowHeight="15680" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29000" windowHeight="15680" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отклонение" sheetId="11" r:id="rId1"/>
@@ -773,7 +773,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <scheme val="minor"/>
+            <family val="2"/>
           </rPr>
           <t>QUEUE - BUF1 AVE. CONT. + BUF2 AVE. CONT</t>
         </r>
@@ -5973,7 +5973,7 @@
   </sheetPr>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="11">
-        <f>ROUND(2.576*I4/SQRT(A4),3)</f>
+        <f t="shared" ref="J4:J20" si="0">ROUND(2.576*I4/SQRT(A4),3)</f>
         <v>0</v>
       </c>
       <c r="K4" s="8">
@@ -6130,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="11">
-        <f>ROUND(2.576*N4/SQRT(A4),3)</f>
+        <f t="shared" ref="O4:O20" si="1">ROUND(2.576*N4/SQRT(A4),3)</f>
         <v>0</v>
       </c>
       <c r="P4" s="8">
@@ -6168,11 +6168,11 @@
         <v>0</v>
       </c>
       <c r="J5" s="11">
-        <f>ROUND(2.576*I5/SQRT(A5),3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" ref="K5:K20" si="0">J5/G5</f>
+        <f t="shared" ref="K5:K20" si="2">J5/G5</f>
         <v>0</v>
       </c>
       <c r="L5" s="10">
@@ -6185,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="11">
-        <f>ROUND(2.576*N5/SQRT(A5),3)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P5" s="8">
@@ -6204,7 +6204,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D6" s="8" t="str">
-        <f t="shared" ref="D6:D15" si="1">IFERROR(ABS(C6/C5-1), "-")</f>
+        <f t="shared" ref="D6:D15" si="3">IFERROR(ABS(C6/C5-1), "-")</f>
         <v>-</v>
       </c>
       <c r="E6" s="10">
@@ -6224,7 +6224,7 @@
         <v>45.350999999999999</v>
       </c>
       <c r="J6" s="11">
-        <f>ROUND(2.576*I6/SQRT(A6),3)</f>
+        <f t="shared" si="0"/>
         <v>16.521000000000001</v>
       </c>
       <c r="K6" s="8">
@@ -6241,7 +6241,7 @@
         <v>14.326000000000001</v>
       </c>
       <c r="O6" s="11">
-        <f>ROUND(2.576*N6/SQRT(A6),3)</f>
+        <f t="shared" si="1"/>
         <v>5.2190000000000003</v>
       </c>
       <c r="P6" s="8">
@@ -6257,11 +6257,11 @@
         <v>7</v>
       </c>
       <c r="C7" s="8">
-        <f>B7/A7</f>
+        <f t="shared" ref="C7:C20" si="4">B7/A7</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="E7" s="10">
@@ -6274,36 +6274,36 @@
         <v>13.808</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" ref="H7:H20" si="2">ABS(G7/G6-1)</f>
+        <f t="shared" ref="H7:H20" si="5">ABS(G7/G6-1)</f>
         <v>2.7400154962315959E-2</v>
       </c>
       <c r="I7" s="10">
         <v>44.722999999999999</v>
       </c>
       <c r="J7" s="11">
-        <f>ROUND(2.576*I7/SQRT(A7),3)</f>
+        <f t="shared" si="0"/>
         <v>11.521000000000001</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.8343713789107764</v>
       </c>
       <c r="L7" s="10">
         <v>2.4260000000000002</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" ref="M7:M20" si="3">ABS(L7/L6-1)</f>
+        <f t="shared" ref="M7:M20" si="6">ABS(L7/L6-1)</f>
         <v>4.1864139020537094E-2</v>
       </c>
       <c r="N7" s="10">
         <v>14.03</v>
       </c>
       <c r="O7" s="11">
-        <f>ROUND(2.576*N7/SQRT(A7),3)</f>
+        <f t="shared" si="1"/>
         <v>3.6139999999999999</v>
       </c>
       <c r="P7" s="8">
-        <f t="shared" ref="P7:P20" si="4">O7/L7</f>
+        <f t="shared" ref="P7:P20" si="7">O7/L7</f>
         <v>1.4896949711459191</v>
       </c>
     </row>
@@ -6315,7 +6315,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="8">
-        <f>B8/A8</f>
+        <f t="shared" si="4"/>
         <v>5.5E-2</v>
       </c>
       <c r="D8" s="8">
@@ -6332,36 +6332,36 @@
         <v>14.803000000000001</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7.2059675550405711E-2</v>
       </c>
       <c r="I8" s="10">
         <v>47.689</v>
       </c>
       <c r="J8" s="11">
-        <f>ROUND(2.576*I8/SQRT(A8),3)</f>
+        <f t="shared" si="0"/>
         <v>8.6869999999999994</v>
       </c>
       <c r="K8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.58684050530297904</v>
       </c>
       <c r="L8" s="10">
         <v>2.157</v>
       </c>
       <c r="M8" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.11088211046990937</v>
       </c>
       <c r="N8" s="10">
         <v>13.242000000000001</v>
       </c>
       <c r="O8" s="11">
-        <f>ROUND(2.576*N8/SQRT(A8),3)</f>
+        <f t="shared" si="1"/>
         <v>2.4119999999999999</v>
       </c>
       <c r="P8" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1182197496522948</v>
       </c>
     </row>
@@ -6373,11 +6373,11 @@
         <v>15</v>
       </c>
       <c r="C9" s="8">
-        <f>B9/A9</f>
+        <f t="shared" si="4"/>
         <v>0.03</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.45454545454545459</v>
       </c>
       <c r="E9" s="10">
@@ -6390,36 +6390,36 @@
         <v>15.387</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.9451462541376658E-2</v>
       </c>
       <c r="I9" s="10">
         <v>52.814</v>
       </c>
       <c r="J9" s="11">
-        <f>ROUND(2.576*I9/SQRT(A9),3)</f>
+        <f t="shared" si="0"/>
         <v>6.0839999999999996</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.39539871319945402</v>
       </c>
       <c r="L9" s="10">
         <v>1.6879999999999999</v>
       </c>
       <c r="M9" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.2174316179879463</v>
       </c>
       <c r="N9" s="10">
         <v>11.737</v>
       </c>
       <c r="O9" s="11">
-        <f>ROUND(2.576*N9/SQRT(A9),3)</f>
+        <f t="shared" si="1"/>
         <v>1.3520000000000001</v>
       </c>
       <c r="P9" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.80094786729857825</v>
       </c>
     </row>
@@ -6431,11 +6431,11 @@
         <v>25</v>
       </c>
       <c r="C10" s="8">
-        <f>B10/A10</f>
+        <f t="shared" si="4"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.16666666666666663</v>
       </c>
       <c r="E10" s="10">
@@ -6448,36 +6448,36 @@
         <v>17.050999999999998</v>
       </c>
       <c r="H10" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.10814323779814106</v>
       </c>
       <c r="I10" s="10">
         <v>59.051000000000002</v>
       </c>
       <c r="J10" s="11">
-        <f>ROUND(2.576*I10/SQRT(A10),3)</f>
+        <f t="shared" si="0"/>
         <v>4.8099999999999996</v>
       </c>
       <c r="K10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.28209489179520264</v>
       </c>
       <c r="L10" s="10">
         <v>3.8450000000000002</v>
       </c>
       <c r="M10" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2778436018957349</v>
       </c>
       <c r="N10" s="10">
         <v>24.681000000000001</v>
       </c>
       <c r="O10" s="11">
-        <f>ROUND(2.576*N10/SQRT(A10),3)</f>
+        <f t="shared" si="1"/>
         <v>2.0110000000000001</v>
       </c>
       <c r="P10" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.52301690507152143</v>
       </c>
     </row>
@@ -6489,11 +6489,11 @@
         <v>42</v>
       </c>
       <c r="C11" s="8">
-        <f>B11/A11</f>
+        <f t="shared" si="4"/>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="D11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.16000000000000003</v>
       </c>
       <c r="E11" s="10">
@@ -6506,36 +6506,36 @@
         <v>16.510999999999999</v>
       </c>
       <c r="H11" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.1669696791976953E-2</v>
       </c>
       <c r="I11" s="10">
         <v>58.03</v>
       </c>
       <c r="J11" s="11">
-        <f>ROUND(2.576*I11/SQRT(A11),3)</f>
+        <f t="shared" si="0"/>
         <v>3.343</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.20247107988613652</v>
       </c>
       <c r="L11" s="10">
         <v>3.855</v>
       </c>
       <c r="M11" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.6007802340701769E-3</v>
       </c>
       <c r="N11" s="10">
         <v>23.882999999999999</v>
       </c>
       <c r="O11" s="11">
-        <f>ROUND(2.576*N11/SQRT(A11),3)</f>
+        <f t="shared" si="1"/>
         <v>1.3759999999999999</v>
       </c>
       <c r="P11" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.35693904020752265</v>
       </c>
     </row>
@@ -6547,11 +6547,11 @@
         <v>91</v>
       </c>
       <c r="C12" s="8">
-        <f>B12/A12</f>
+        <f t="shared" si="4"/>
         <v>1.8200000000000001E-2</v>
       </c>
       <c r="D12" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.1333333333333333</v>
       </c>
       <c r="E12" s="10">
@@ -6564,36 +6564,36 @@
         <v>16.587</v>
       </c>
       <c r="H12" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>4.602991944764101E-3</v>
       </c>
       <c r="I12" s="10">
         <v>58.46</v>
       </c>
       <c r="J12" s="11">
-        <f>ROUND(2.576*I12/SQRT(A12),3)</f>
+        <f t="shared" si="0"/>
         <v>2.13</v>
       </c>
       <c r="K12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.12841381805028035</v>
       </c>
       <c r="L12" s="10">
         <v>3.766</v>
       </c>
       <c r="M12" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.3086900129701715E-2</v>
       </c>
       <c r="N12" s="10">
         <v>25.911999999999999</v>
       </c>
       <c r="O12" s="11">
-        <f>ROUND(2.576*N12/SQRT(A12),3)</f>
+        <f t="shared" si="1"/>
         <v>0.94399999999999995</v>
       </c>
       <c r="P12" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.25066383430695699</v>
       </c>
     </row>
@@ -6605,11 +6605,11 @@
         <v>194</v>
       </c>
       <c r="C13" s="35">
-        <f>B13/A13</f>
+        <f t="shared" si="4"/>
         <v>1.9400000000000001E-2</v>
       </c>
       <c r="D13" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.5934065934065922E-2</v>
       </c>
       <c r="E13" s="36">
@@ -6622,18 +6622,18 @@
         <v>16.704999999999998</v>
       </c>
       <c r="H13" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>7.1140049436304587E-3</v>
       </c>
       <c r="I13" s="36">
         <v>59.359000000000002</v>
       </c>
       <c r="J13" s="37">
-        <f>ROUND(2.576*I13/SQRT(A13),3)</f>
+        <f t="shared" si="0"/>
         <v>1.5289999999999999</v>
       </c>
       <c r="K13" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.1529482190960798E-2</v>
       </c>
       <c r="L13" s="36">
@@ -6647,11 +6647,11 @@
         <v>21.241</v>
       </c>
       <c r="O13" s="37">
-        <f>ROUND(2.576*N13/SQRT(A13),3)</f>
+        <f t="shared" si="1"/>
         <v>0.54700000000000004</v>
       </c>
       <c r="P13" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.18823124569855473</v>
       </c>
     </row>
@@ -6663,11 +6663,11 @@
         <v>361</v>
       </c>
       <c r="C14" s="29">
-        <f>B14/A14</f>
+        <f t="shared" si="4"/>
         <v>1.805E-2</v>
       </c>
       <c r="D14" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.9587628865979356E-2</v>
       </c>
       <c r="E14" s="30">
@@ -6680,36 +6680,36 @@
         <v>16.497</v>
       </c>
       <c r="H14" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2451361867704236E-2</v>
       </c>
       <c r="I14" s="30">
         <v>58.405999999999999</v>
       </c>
       <c r="J14" s="31">
-        <f>ROUND(2.576*I14/SQRT(A14),3)</f>
+        <f t="shared" si="0"/>
         <v>1.0640000000000001</v>
       </c>
       <c r="K14" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.4496575134873016E-2</v>
       </c>
       <c r="L14" s="30">
         <v>3.9820000000000002</v>
       </c>
       <c r="M14" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.37026841018582246</v>
       </c>
       <c r="N14" s="30">
         <v>30.233000000000001</v>
       </c>
       <c r="O14" s="31">
-        <f>ROUND(2.576*N14/SQRT(A14),3)</f>
+        <f t="shared" si="1"/>
         <v>0.55100000000000005</v>
       </c>
       <c r="P14" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.13837267704671019</v>
       </c>
     </row>
@@ -6721,11 +6721,11 @@
         <v>832</v>
       </c>
       <c r="C15" s="8">
-        <f>B15/A15</f>
+        <f t="shared" si="4"/>
         <v>1.6639999999999999E-2</v>
       </c>
       <c r="D15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.8116343490304829E-2</v>
       </c>
       <c r="E15" s="10">
@@ -6738,14 +6738,14 @@
         <v>16.510999999999999</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8.48639146511454E-4</v>
       </c>
       <c r="I15" s="10">
         <v>57.83</v>
       </c>
       <c r="J15" s="11">
-        <f>ROUND(2.576*I15/SQRT(A15),3)</f>
+        <f t="shared" si="0"/>
         <v>0.66600000000000004</v>
       </c>
       <c r="K15" s="8">
@@ -6763,11 +6763,11 @@
         <v>30.099</v>
       </c>
       <c r="O15" s="11">
-        <f>ROUND(2.576*N15/SQRT(A15),3)</f>
+        <f t="shared" si="1"/>
         <v>0.34699999999999998</v>
       </c>
       <c r="P15" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8.5278938314082078E-2</v>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
         <v>1776</v>
       </c>
       <c r="C16" s="8">
-        <f>B16/A16</f>
+        <f t="shared" si="4"/>
         <v>1.7760000000000001E-2</v>
       </c>
       <c r="D16" s="8">
@@ -6796,36 +6796,36 @@
         <v>16.576000000000001</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.9367694264431652E-3</v>
       </c>
       <c r="I16" s="10">
         <v>57.823</v>
       </c>
       <c r="J16" s="11">
-        <f>ROUND(2.576*I16/SQRT(A16),3)</f>
+        <f t="shared" si="0"/>
         <v>0.47099999999999997</v>
       </c>
       <c r="K16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.8414575289575288E-2</v>
       </c>
       <c r="L16" s="10">
         <v>3.512</v>
       </c>
       <c r="M16" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.13688867043499631</v>
       </c>
       <c r="N16" s="10">
         <v>27.844999999999999</v>
       </c>
       <c r="O16" s="11">
-        <f>ROUND(2.576*N16/SQRT(A16),3)</f>
+        <f t="shared" si="1"/>
         <v>0.22700000000000001</v>
       </c>
       <c r="P16" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6.4635535307517089E-2</v>
       </c>
     </row>
@@ -6837,11 +6837,11 @@
         <v>3632</v>
       </c>
       <c r="C17" s="8">
-        <f>B17/A17</f>
+        <f t="shared" si="4"/>
         <v>1.8159999999999999E-2</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" ref="D17" si="5">IFERROR(ABS(C17/C16-1), "-")</f>
+        <f t="shared" ref="D17" si="8">IFERROR(ABS(C17/C16-1), "-")</f>
         <v>2.2522522522522292E-2</v>
       </c>
       <c r="E17" s="10">
@@ -6854,36 +6854,36 @@
         <v>16.544</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.9305019305019266E-3</v>
       </c>
       <c r="I17" s="10">
         <v>57.713000000000001</v>
       </c>
       <c r="J17" s="11">
-        <f>ROUND(2.576*I17/SQRT(A17),3)</f>
+        <f t="shared" si="0"/>
         <v>0.33200000000000002</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.0067698259187621E-2</v>
       </c>
       <c r="L17" s="10">
         <v>3.4670000000000001</v>
       </c>
       <c r="M17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2813211845102535E-2</v>
       </c>
       <c r="N17" s="10">
         <v>27.577000000000002</v>
       </c>
       <c r="O17" s="11">
-        <f>ROUND(2.576*N17/SQRT(A17),3)</f>
+        <f t="shared" si="1"/>
         <v>0.159</v>
       </c>
       <c r="P17" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4.5860974906259011E-2</v>
       </c>
     </row>
@@ -6895,7 +6895,7 @@
         <v>6330</v>
       </c>
       <c r="C18" s="8">
-        <f>B18/A18</f>
+        <f t="shared" si="4"/>
         <v>2.1100000000000001E-2</v>
       </c>
       <c r="D18" s="8">
@@ -6912,36 +6912,36 @@
         <v>16.524000000000001</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2088974854932433E-3</v>
       </c>
       <c r="I18" s="10">
         <v>57.86</v>
       </c>
       <c r="J18" s="11">
-        <f>ROUND(2.576*I18/SQRT(A18),3)</f>
+        <f t="shared" si="0"/>
         <v>0.27200000000000002</v>
       </c>
       <c r="K18" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.646090534979424E-2</v>
       </c>
       <c r="L18" s="10">
         <v>3.3340000000000001</v>
       </c>
       <c r="M18" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.8361695990770106E-2</v>
       </c>
       <c r="N18" s="10">
         <v>26.661000000000001</v>
       </c>
       <c r="O18" s="11">
-        <f>ROUND(2.576*N18/SQRT(A18),3)</f>
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
       <c r="P18" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.7492501499700057E-2</v>
       </c>
     </row>
@@ -6953,7 +6953,7 @@
         <v>14442</v>
       </c>
       <c r="C19" s="8">
-        <f>B19/A19</f>
+        <f t="shared" si="4"/>
         <v>2.8884E-2</v>
       </c>
       <c r="D19" s="8">
@@ -6970,36 +6970,36 @@
         <v>16.364999999999998</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.6223674655048219E-3</v>
       </c>
       <c r="I19" s="10">
         <v>57.341000000000001</v>
       </c>
       <c r="J19" s="11">
-        <f>ROUND(2.576*I19/SQRT(A19),3)</f>
+        <f t="shared" si="0"/>
         <v>0.20899999999999999</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2771157959058968E-2</v>
       </c>
       <c r="L19" s="10">
         <v>3.34</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.7996400719855199E-3</v>
       </c>
       <c r="N19" s="10">
         <v>26.661999999999999</v>
       </c>
       <c r="O19" s="11">
-        <f>ROUND(2.576*N19/SQRT(A19),3)</f>
+        <f t="shared" si="1"/>
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="P19" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.9041916167664671E-2</v>
       </c>
     </row>
@@ -7011,11 +7011,11 @@
         <v>23523</v>
       </c>
       <c r="C20" s="8">
-        <f>B20/A20</f>
+        <f t="shared" si="4"/>
         <v>2.3522999999999999E-2</v>
       </c>
       <c r="D20" s="8">
-        <f t="shared" ref="D20" si="6">IFERROR(ABS(C20/C19-1), "-")</f>
+        <f t="shared" ref="D20" si="9">IFERROR(ABS(C20/C19-1), "-")</f>
         <v>0.18560448691317</v>
       </c>
       <c r="E20" s="10">
@@ -7028,36 +7028,36 @@
         <v>16.399999999999999</v>
       </c>
       <c r="H20" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.1387106630004205E-3</v>
       </c>
       <c r="I20" s="10">
         <v>57.225000000000001</v>
       </c>
       <c r="J20" s="11">
-        <f>ROUND(2.576*I20/SQRT(A20),3)</f>
+        <f t="shared" si="0"/>
         <v>0.14699999999999999</v>
       </c>
       <c r="K20" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.9634146341463425E-3</v>
       </c>
       <c r="L20" s="10">
         <v>3.3109999999999999</v>
       </c>
       <c r="M20" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.682634730538874E-3</v>
       </c>
       <c r="N20" s="10">
         <v>26.545999999999999</v>
       </c>
       <c r="O20" s="11">
-        <f>ROUND(2.576*N20/SQRT(A20),3)</f>
+        <f t="shared" si="1"/>
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="P20" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.0537601932950771E-2</v>
       </c>
     </row>
@@ -13806,7 +13806,7 @@
   </sheetPr>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
